--- a/file_gan_nhan.xlsx
+++ b/file_gan_nhan.xlsx
@@ -1328,7 +1328,7 @@
   <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3811,5 +3811,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>